--- a/excel/heroInfo.xlsx
+++ b/excel/heroInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12090"/>
+    <workbookView windowWidth="27945" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$BJ$62</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -152,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="647">
   <si>
     <t>_flag</t>
   </si>
@@ -161,12 +174,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>introduce</t>
   </si>
   <si>
     <t>heroType</t>
@@ -381,6 +388,12 @@
     <t>characterType</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
     <t>STRING</t>
   </si>
   <si>
@@ -2142,14 +2155,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2194,34 +2207,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2238,14 +2223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -2256,13 +2233,6 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2289,6 +2259,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2339,7 +2324,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2363,7 +2369,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2408,55 +2414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2474,31 +2438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2522,19 +2474,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2558,7 +2540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2582,13 +2576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2713,21 +2707,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2756,6 +2735,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2814,153 +2808,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3027,7 +3021,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3069,10 +3063,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3084,56 +3078,56 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="常规 2 5" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
     <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="常规 10" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2 5" xfId="49"/>
+    <cellStyle name="常规 10" xfId="50"/>
     <cellStyle name="常规 2" xfId="51"/>
   </cellStyles>
   <dxfs count="1">
@@ -3505,11 +3499,11 @@
   <dimension ref="A1:BK62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="AY42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BG67" sqref="BG67"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.5"/>
@@ -3550,185 +3544,181 @@
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AO1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AU1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AV1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="17" t="s">
+      <c r="AW1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AX1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="17" t="s">
+      <c r="AY1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="17" t="s">
+      <c r="BA1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="BB1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="17" t="s">
+      <c r="BC1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="17" t="s">
+      <c r="BD1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="17" t="s">
+      <c r="BE1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="17" t="s">
+      <c r="BF1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="36" t="s">
         <v>60</v>
-      </c>
-      <c r="BJ1" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="36" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:63">
@@ -3742,184 +3732,184 @@
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="U2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="W2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="X2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="Y2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AB2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AG2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AH2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AI2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AK2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AL2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AM2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AN2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AO2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AS2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AT2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AU2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="17" t="s">
+      <c r="AV2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="17" t="s">
+      <c r="AW2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="AX2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="17" t="s">
+      <c r="AY2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="17" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="17" t="s">
+      <c r="BA2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="BB2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="17" t="s">
+      <c r="BC2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BD2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="17" t="s">
+      <c r="BE2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BF2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BJ2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BK2" s="36" t="s">
         <v>60</v>
-      </c>
-      <c r="BJ2" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK2" s="36" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:63">
@@ -15338,7 +15328,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:BJ62">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A7:BJ62" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="AC5:AE6">
